--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,21 @@
     <t>giuseppe</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sdsadsa</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>sucuni</t>
+  </si>
+  <si>
     <t>Cangemi</t>
   </si>
   <si>
@@ -76,6 +91,21 @@
     <t>cangemi</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>dasdsadsa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>npizzu</t>
+  </si>
+  <si>
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
@@ -85,21 +115,39 @@
     <t>giuseppe.cangemi@prova.it</t>
   </si>
   <si>
+    <t>b@b.it</t>
+  </si>
+  <si>
+    <t>dsadadas@sdmsa.it</t>
+  </si>
+  <si>
+    <t>76h@kjjm.it</t>
+  </si>
+  <si>
+    <t>cututtiicugghiunq@sucuni.bisdum</t>
+  </si>
+  <si>
+    <t>derryrockpubfidelity.png</t>
+  </si>
+  <si>
     <t>derryrockfoto.jpg</t>
   </si>
   <si>
-    <t>derryrockpubfidelity.png</t>
-  </si>
-  <si>
     <t>1000051796.jpg</t>
   </si>
   <si>
     <t>image (31).png</t>
   </si>
   <si>
+    <t>image.jpg</t>
+  </si>
+  <si>
     <t>image (30).png</t>
   </si>
   <si>
+    <t>Immagine 2024-10-31 122037.png</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
@@ -109,13 +157,61 @@
     <t>Milano</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>dadadas</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>carropepe</t>
+  </si>
+  <si>
+    <t>MOTTA SANT'ANASTASIA</t>
+  </si>
+  <si>
     <t>Motta Sant'Anastasia</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misterbianco </t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>Maschile</t>
   </si>
   <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>Femminile</t>
+  </si>
+  <si>
     <t>id1234</t>
+  </si>
+  <si>
+    <t>Jaj</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>AHHAHAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>161819273628191</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -477,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,216 +625,261 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>1201</v>
+        <v>7000</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G3">
-        <v>6201</v>
+        <v>7001</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>3500</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>3501</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2">
+        <v>34680</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>7000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45573</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>7001</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-644653</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>7000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-280525</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-214781</v>
+      </c>
+      <c r="L9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2">
-        <v>34680</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +890,232 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>7001</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2">
         <v>34680</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>666</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-5662</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>1201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>6201</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>3500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>3501</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>7002</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -61,157 +61,160 @@
     <t>Giuseppe</t>
   </si>
   <si>
+    <t>giuseppe</t>
+  </si>
+  <si>
+    <t>sdsadsa</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>sucuni</t>
+  </si>
+  <si>
     <t>Ci Piace la figa</t>
   </si>
   <si>
-    <t>giuseppe</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>sdsadsa</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>sucuni</t>
-  </si>
-  <si>
     <t>Cangemi</t>
   </si>
   <si>
+    <t>cangemi</t>
+  </si>
+  <si>
+    <t>dasdsadsa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>npizzu</t>
+  </si>
+  <si>
     <t>Tantissimo</t>
   </si>
   <si>
-    <t>cangemi</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>dasdsadsa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>npizzu</t>
-  </si>
-  <si>
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
+    <t>giuseppe.cangemi@prova.it</t>
+  </si>
+  <si>
+    <t>dsadadas@sdmsa.it</t>
+  </si>
+  <si>
+    <t>76h@kjjm.it</t>
+  </si>
+  <si>
+    <t>cututtiicugghiunq@sucuni.bisdum</t>
+  </si>
+  <si>
     <t>salvatoremariazuccarello@pornhub.com</t>
   </si>
   <si>
-    <t>giuseppe.cangemi@prova.it</t>
-  </si>
-  <si>
     <t>b@b.it</t>
   </si>
   <si>
-    <t>dsadadas@sdmsa.it</t>
-  </si>
-  <si>
-    <t>76h@kjjm.it</t>
-  </si>
-  <si>
-    <t>cututtiicugghiunq@sucuni.bisdum</t>
+    <t>derryrockfoto.jpg</t>
   </si>
   <si>
     <t>derryrockpubfidelity.png</t>
   </si>
   <si>
-    <t>derryrockfoto.jpg</t>
+    <t>image (31).png</t>
+  </si>
+  <si>
+    <t>image (30).png</t>
+  </si>
+  <si>
+    <t>Immagine 2024-10-31 122037.png</t>
+  </si>
+  <si>
+    <t>image.jpg</t>
   </si>
   <si>
     <t>1000051796.jpg</t>
   </si>
   <si>
-    <t>image (31).png</t>
-  </si>
-  <si>
-    <t>image.jpg</t>
-  </si>
-  <si>
-    <t>image (30).png</t>
-  </si>
-  <si>
-    <t>Immagine 2024-10-31 122037.png</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
     <t>Sì</t>
   </si>
   <si>
+    <t>MOTTA SANT'ANASTASIA</t>
+  </si>
+  <si>
     <t>Milano</t>
   </si>
   <si>
+    <t>dadadas</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>carropepe</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>dadadas</t>
-  </si>
-  <si>
-    <t>sas</t>
-  </si>
-  <si>
-    <t>carropepe</t>
-  </si>
-  <si>
-    <t>MOTTA SANT'ANASTASIA</t>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>Motta Sant'Anastasia</t>
   </si>
   <si>
+    <t>SAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misterbianco </t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
-    <t>SAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misterbianco </t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Maschile</t>
   </si>
   <si>
+    <t>Femminile</t>
+  </si>
+  <si>
     <t>Altro</t>
   </si>
   <si>
-    <t>Femminile</t>
+    <t>eee</t>
   </si>
   <si>
     <t>id1234</t>
   </si>
   <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>AHHAHAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>161819273628191</t>
+  </si>
+  <si>
     <t>Jaj</t>
-  </si>
-  <si>
-    <t>SAD</t>
-  </si>
-  <si>
-    <t>AHHAHAHAHAHAHA</t>
-  </si>
-  <si>
-    <t>161819273628191</t>
-  </si>
-  <si>
-    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +628,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -643,18 +646,15 @@
         <v>44</v>
       </c>
       <c r="G2">
-        <v>7000</v>
+        <v>3501</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -666,170 +666,191 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3">
-        <v>7001</v>
+        <v>7002</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>7003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2">
+        <v>34315</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="2">
-        <v>34680</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>7000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45573</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>7001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>7001</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2">
-        <v>-644653</v>
+        <v>34680</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8">
-        <v>7000</v>
+        <v>7001</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2">
-        <v>-280525</v>
+        <v>-644653</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
@@ -843,19 +864,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -867,16 +888,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2">
-        <v>-214781</v>
+        <v>-280525</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
         <v>63</v>
@@ -884,118 +905,133 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
       <c r="G10">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2">
-        <v>34680</v>
+        <v>-214781</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
       <c r="G11">
-        <v>666</v>
+        <v>7001</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2">
-        <v>-5662</v>
+        <v>34680</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
       </c>
       <c r="G12">
-        <v>1201</v>
+        <v>666</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-5662</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1007,42 +1043,39 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13">
-        <v>6201</v>
+        <v>1201</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
       </c>
       <c r="G14">
-        <v>3500</v>
+        <v>9999</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -1053,33 +1086,48 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15">
-        <v>3501</v>
+        <v>10000</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45573</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1091,31 +1139,48 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
       </c>
       <c r="G16">
-        <v>7002</v>
+        <v>6201</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2">
-        <v>34681</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" t="s">
-        <v>65</v>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>3500</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -127,12 +127,12 @@
     <t>b@b.it</t>
   </si>
   <si>
+    <t>derryrockpubfidelity.png</t>
+  </si>
+  <si>
     <t>derryrockfoto.jpg</t>
   </si>
   <si>
-    <t>derryrockpubfidelity.png</t>
-  </si>
-  <si>
     <t>image (31).png</t>
   </si>
   <si>
@@ -172,22 +172,25 @@
     <t>N</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Motta Sant'Anastasia</t>
+  </si>
+  <si>
+    <t>SAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misterbianco </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Motta Sant'Anastasia</t>
-  </si>
-  <si>
-    <t>SAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misterbianco </t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>1w1w</t>
   </si>
   <si>
     <t>Maschile</t>
@@ -199,22 +202,22 @@
     <t>Altro</t>
   </si>
   <si>
+    <t>id1234</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>AHHAHAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>161819273628191</t>
+  </si>
+  <si>
+    <t>Jaj</t>
+  </si>
+  <si>
     <t>eee</t>
-  </si>
-  <si>
-    <t>id1234</t>
-  </si>
-  <si>
-    <t>SAD</t>
-  </si>
-  <si>
-    <t>AHHAHAHAHAHAHA</t>
-  </si>
-  <si>
-    <t>161819273628191</t>
-  </si>
-  <si>
-    <t>Jaj</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +631,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -646,15 +649,30 @@
         <v>44</v>
       </c>
       <c r="G2">
-        <v>3501</v>
+        <v>7003</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2">
+        <v>34315</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -672,30 +690,18 @@
         <v>44</v>
       </c>
       <c r="G3">
-        <v>7002</v>
+        <v>7000</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="2">
-        <v>34681</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
+      <c r="I3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -713,71 +719,59 @@
         <v>44</v>
       </c>
       <c r="G4">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2">
-        <v>34315</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>7000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2">
+        <v>34680</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -788,101 +782,125 @@
       <c r="H6" t="s">
         <v>44</v>
       </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-644653</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>7000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
       <c r="K7" s="2">
-        <v>34680</v>
+        <v>-280525</v>
       </c>
       <c r="L7" t="s">
         <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2">
-        <v>-644653</v>
+        <v>-214781</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
       </c>
       <c r="G9">
-        <v>7000</v>
+        <v>7001</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -891,121 +909,109 @@
         <v>47</v>
       </c>
       <c r="K9" s="2">
-        <v>-280525</v>
+        <v>34680</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
       <c r="G10">
-        <v>7000</v>
+        <v>666</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
-        <v>-214781</v>
+        <v>-5662</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
       <c r="G11">
-        <v>7001</v>
+        <v>1201</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="2">
-        <v>34680</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
       </c>
       <c r="G12">
-        <v>666</v>
+        <v>9999</v>
       </c>
       <c r="H12" t="s">
         <v>44</v>
@@ -1013,69 +1019,69 @@
       <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-5662</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13">
-        <v>1201</v>
+        <v>10000</v>
       </c>
       <c r="H13" t="s">
         <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45573</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
       </c>
       <c r="G14">
-        <v>9999</v>
+        <v>6201</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -1086,48 +1092,36 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="2">
-        <v>45573</v>
-      </c>
-      <c r="L15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
+      <c r="I15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1145,18 +1139,30 @@
         <v>44</v>
       </c>
       <c r="G16">
-        <v>6201</v>
+        <v>10001</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2">
+        <v>33951</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1174,13 +1180,95 @@
         <v>44</v>
       </c>
       <c r="G17">
-        <v>3500</v>
+        <v>200000</v>
       </c>
       <c r="H17" t="s">
         <v>44</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2">
+        <v>33950</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>3501</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>7002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -61,42 +61,45 @@
     <t>Giuseppe</t>
   </si>
   <si>
+    <t>sdsadsa</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>giuseppe</t>
   </si>
   <si>
-    <t>sdsadsa</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>sucuni</t>
   </si>
   <si>
     <t>Ci Piace la figa</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>Cangemi</t>
   </si>
   <si>
+    <t>dasdsadsa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>cangemi</t>
   </si>
   <si>
-    <t>dasdsadsa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>npizzu</t>
   </si>
   <si>
@@ -109,12 +112,12 @@
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
+    <t>dsadadas@sdmsa.it</t>
+  </si>
+  <si>
     <t>giuseppe.cangemi@prova.it</t>
   </si>
   <si>
-    <t>dsadadas@sdmsa.it</t>
-  </si>
-  <si>
     <t>76h@kjjm.it</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>salvatoremariazuccarello@pornhub.com</t>
   </si>
   <si>
+    <t>d.d@d.it</t>
+  </si>
+  <si>
     <t>b@b.it</t>
   </si>
   <si>
@@ -133,19 +139,22 @@
     <t>derryrockfoto.jpg</t>
   </si>
   <si>
+    <t>image (30).png</t>
+  </si>
+  <si>
+    <t>Immagine 2024-10-31 122037.png</t>
+  </si>
+  <si>
+    <t>image.jpg</t>
+  </si>
+  <si>
+    <t>1000051796.jpg</t>
+  </si>
+  <si>
     <t>image (31).png</t>
   </si>
   <si>
-    <t>image (30).png</t>
-  </si>
-  <si>
-    <t>Immagine 2024-10-31 122037.png</t>
-  </si>
-  <si>
-    <t>image.jpg</t>
-  </si>
-  <si>
-    <t>1000051796.jpg</t>
+    <t>IMG_8356.jpeg</t>
   </si>
   <si>
     <t>SI</t>
@@ -157,12 +166,12 @@
     <t>MOTTA SANT'ANASTASIA</t>
   </si>
   <si>
+    <t>dadadas</t>
+  </si>
+  <si>
     <t>Milano</t>
   </si>
   <si>
-    <t>dadadas</t>
-  </si>
-  <si>
     <t>sas</t>
   </si>
   <si>
@@ -172,6 +181,12 @@
     <t>N</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1w1w</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
@@ -187,19 +202,16 @@
     <t>H</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>1w1w</t>
+    <t>Femminile</t>
+  </si>
+  <si>
+    <t>Altro</t>
   </si>
   <si>
     <t>Maschile</t>
   </si>
   <si>
-    <t>Femminile</t>
-  </si>
-  <si>
-    <t>Altro</t>
+    <t>eee</t>
   </si>
   <si>
     <t>id1234</t>
@@ -214,10 +226,10 @@
     <t>161819273628191</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Jaj</t>
-  </si>
-  <si>
-    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -579,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,106 +643,136 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>7003</v>
+        <v>10001</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>34315</v>
+        <v>33951</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>33950</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>7001</v>
+        <v>7003</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <v>34315</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -741,291 +783,285 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2">
-        <v>34680</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>7000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>7001</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-644653</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>7000</v>
+        <v>7001</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
-        <v>-280525</v>
+        <v>-644653</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>7000</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>-214781</v>
+        <v>-280525</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>34680</v>
+        <v>-214781</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>666</v>
+        <v>7001</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>-5662</v>
+        <v>34680</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>1201</v>
+        <v>666</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-5662</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>9999</v>
+        <v>1201</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1034,241 +1070,267 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13">
-        <v>10000</v>
+        <v>9999</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="2">
-        <v>45573</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14">
-        <v>6201</v>
+        <v>3501</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15">
-        <v>3500</v>
+        <v>7002</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
-        <v>33951</v>
+        <v>34680</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>200000</v>
+        <v>10003</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="K17" s="2">
-        <v>33950</v>
+        <v>45598</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18">
-        <v>3501</v>
+        <v>10000</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45573</v>
+      </c>
+      <c r="L18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>7002</v>
+        <v>6201</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="2">
-        <v>34681</v>
-      </c>
-      <c r="L19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>3500</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -61,16 +61,40 @@
     <t>Giuseppe</t>
   </si>
   <si>
+    <t xml:space="preserve">alessandro </t>
+  </si>
+  <si>
+    <t>serena</t>
+  </si>
+  <si>
     <t>Cangemi</t>
   </si>
   <si>
+    <t>aletta</t>
+  </si>
+  <si>
+    <t>zante</t>
+  </si>
+  <si>
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
+    <t>abc@prova.it</t>
+  </si>
+  <si>
+    <t>ss@ss.it</t>
+  </si>
+  <si>
+    <t>derryrockpubfidelity.png</t>
+  </si>
+  <si>
+    <t>qrcode_google_form.png</t>
+  </si>
+  <si>
     <t>derryrockfoto.jpg</t>
   </si>
   <si>
-    <t>qrcode_google_form.png</t>
+    <t>image.jpg</t>
   </si>
   <si>
     <t>SI</t>
@@ -85,10 +109,19 @@
     <t>a</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>e</t>
+    <t>Ss</t>
   </si>
   <si>
     <t>Femminile</t>
@@ -97,10 +130,16 @@
     <t>Maschile</t>
   </si>
   <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
     <t>w</t>
   </si>
   <si>
-    <t>eee</t>
+    <t>Der</t>
   </si>
 </sst>
 </file>
@@ -462,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,128 +553,333 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2">
-        <v>34681</v>
+        <v>34679</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2">
         <v>34681</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>34378</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>34649</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
         <v>34681</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>34640</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>carta_identita</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
     <t>Giuseppe</t>
   </si>
   <si>
@@ -67,6 +70,33 @@
     <t>serena</t>
   </si>
   <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
     <t>Cangemi</t>
   </si>
   <si>
@@ -76,6 +106,36 @@
     <t>zante</t>
   </si>
   <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Neri</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Conti</t>
+  </si>
+  <si>
+    <t>maria.rossi@example.com</t>
+  </si>
+  <si>
+    <t>giuseppe@example.com</t>
+  </si>
+  <si>
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
@@ -85,24 +145,96 @@
     <t>ss@ss.it</t>
   </si>
   <si>
+    <t>francesco.martini@example.com</t>
+  </si>
+  <si>
+    <t>elena.ferrari@example.com</t>
+  </si>
+  <si>
+    <t>luca.bianchi@example.com</t>
+  </si>
+  <si>
+    <t>anna.verdi@example.com</t>
+  </si>
+  <si>
+    <t>marco.neri@example.com</t>
+  </si>
+  <si>
+    <t>giulia.gallo@example.com</t>
+  </si>
+  <si>
+    <t>alessandro.ruggeri@example.com</t>
+  </si>
+  <si>
+    <t>sofia.conti@example.com</t>
+  </si>
+  <si>
+    <t>nome_file_2.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_1.pdf</t>
+  </si>
+  <si>
+    <t>derryrockfoto.jpg</t>
+  </si>
+  <si>
     <t>derryrockpubfidelity.png</t>
   </si>
   <si>
     <t>qrcode_google_form.png</t>
   </si>
   <si>
-    <t>derryrockfoto.jpg</t>
-  </si>
-  <si>
     <t>image.jpg</t>
   </si>
   <si>
+    <t>nome_file_7.pdf</t>
+  </si>
+  <si>
+    <t>pdf_background_image.jpg</t>
+  </si>
+  <si>
+    <t>nome_file.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_10.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_3.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_4.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_5.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_6.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_9.pdf</t>
+  </si>
+  <si>
+    <t>nome_file_8.pdf</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Sì</t>
   </si>
   <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>MOTTA SANT'ANASTASIA</t>
   </si>
   <si>
@@ -115,21 +247,99 @@
     <t>S</t>
   </si>
   <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Via Milano, 2</t>
+  </si>
+  <si>
+    <t>Via Roma, 1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Ss</t>
   </si>
   <si>
+    <t>Via Bologna, 7</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>Via Catania, 10</t>
+  </si>
+  <si>
+    <t>Via Torino, 3</t>
+  </si>
+  <si>
+    <t>Via Napoli, 4</t>
+  </si>
+  <si>
+    <t>Via Firenze, 5</t>
+  </si>
+  <si>
+    <t>Via Palermo, 6</t>
+  </si>
+  <si>
+    <t>Via Venezia, 9</t>
+  </si>
+  <si>
+    <t>Via Genova, 8</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>Femminile</t>
   </si>
   <si>
     <t>Maschile</t>
   </si>
   <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>CD2345678</t>
+  </si>
+  <si>
+    <t>AB1234567</t>
+  </si>
+  <si>
     <t>eee</t>
   </si>
   <si>
@@ -140,6 +350,30 @@
   </si>
   <si>
     <t>Der</t>
+  </si>
+  <si>
+    <t>MN7890123</t>
+  </si>
+  <si>
+    <t>ST0123456</t>
+  </si>
+  <si>
+    <t>EF3456789</t>
+  </si>
+  <si>
+    <t>GH4567890</t>
+  </si>
+  <si>
+    <t>IJ5678901</t>
+  </si>
+  <si>
+    <t>KL6789012</t>
+  </si>
+  <si>
+    <t>QR9012345</t>
+  </si>
+  <si>
+    <t>OP8901234</t>
   </si>
 </sst>
 </file>
@@ -501,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,333 +787,1145 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>12346</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2">
-        <v>34679</v>
+        <v>45601</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>12345</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2">
-        <v>34681</v>
+        <v>45600</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2">
-        <v>34378</v>
+        <v>34316</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2">
-        <v>34649</v>
+        <v>34284</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2">
-        <v>34681</v>
+        <v>34649</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2">
-        <v>34681</v>
+        <v>36475</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2">
-        <v>34640</v>
+        <v>34679</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2">
         <v>34681</v>
       </c>
       <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2">
+        <v>34378</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2">
+        <v>34649</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="2">
+        <v>34640</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>12351</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45606</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2">
+        <v>32823</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <v>12345</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="2">
+        <v>45600</v>
+      </c>
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>12354</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45609</v>
+      </c>
+      <c r="L18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="2">
+        <v>34681</v>
+      </c>
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>12347</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="2">
+        <v>45602</v>
+      </c>
+      <c r="L20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="M9" t="s">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>12348</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="2">
+        <v>45603</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="2">
+        <v>36475</v>
+      </c>
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>12349</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="2">
+        <v>45604</v>
+      </c>
+      <c r="L23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>12350</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45605</v>
+      </c>
+      <c r="L24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
-        <v>38</v>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>12353</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="2">
+        <v>45608</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="2">
+        <v>29536</v>
+      </c>
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>12352</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="2">
+        <v>45607</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28">
+        <v>12355</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="2">
+        <v>36475</v>
+      </c>
+      <c r="L28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -58,30 +58,60 @@
     <t>carta_identita</t>
   </si>
   <si>
+    <t>Salvatore Maria</t>
+  </si>
+  <si>
+    <t>Salvatore Ambrogio</t>
+  </si>
+  <si>
     <t>Giuseppe</t>
   </si>
   <si>
     <t xml:space="preserve">Salvatore Maria </t>
   </si>
   <si>
+    <t>Zuccarellolllolloaa</t>
+  </si>
+  <si>
+    <t>Zuccarello COnte</t>
+  </si>
+  <si>
     <t>Cangemi</t>
   </si>
   <si>
     <t>Zuccarello</t>
   </si>
   <si>
+    <t xml:space="preserve">Zuccarello </t>
+  </si>
+  <si>
+    <t>Zuccarellolllollo</t>
+  </si>
+  <si>
     <t>giuseppecangemi94@gmail.com</t>
   </si>
   <si>
     <t>hahahahahah@ahha.ut</t>
   </si>
   <si>
+    <t>salvatoremariazuccarello@gmail.com</t>
+  </si>
+  <si>
+    <t>pdf_background_image.jpg</t>
+  </si>
+  <si>
     <t>image.jpg</t>
   </si>
   <si>
+    <t>1000054126.jpg</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
+    <t>MOTTA SANT'ANASTASIA</t>
+  </si>
+  <si>
     <t>Gagah</t>
   </si>
   <si>
@@ -91,6 +121,15 @@
     <t>Hanajah</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Haha</t>
   </si>
   <si>
@@ -100,9 +139,18 @@
     <t>Femminile</t>
   </si>
   <si>
+    <t>Altro</t>
+  </si>
+  <si>
     <t>Maschile</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
     <t>Ajajah</t>
   </si>
   <si>
@@ -110,6 +158,9 @@
   </si>
   <si>
     <t>Hahah</t>
+  </si>
+  <si>
+    <t>Ca5681Jt</t>
   </si>
 </sst>
 </file>
@@ -471,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,125 +574,330 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2">
-        <v>38265</v>
+        <v>24433</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>40122</v>
+        <v>34284</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>32458</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>38265</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>40122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>36104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>31449</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2">
-        <v>36104</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
+      </c>
+      <c r="K9" s="2">
+        <v>28440</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DB/dati_soci.xlsx
+++ b/DB/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -58,27 +58,27 @@
     <t>carta_identita</t>
   </si>
   <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
     <t>Salvatore Maria</t>
   </si>
   <si>
     <t>Salvatore Ambrogio</t>
   </si>
   <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salvatore Maria </t>
   </si>
   <si>
+    <t>Cangemi</t>
+  </si>
+  <si>
     <t>Zuccarellolllolloaa</t>
   </si>
   <si>
     <t>Zuccarello COnte</t>
   </si>
   <si>
-    <t>Cangemi</t>
-  </si>
-  <si>
     <t>Zuccarello</t>
   </si>
   <si>
@@ -100,12 +100,18 @@
     <t>pdf_background_image.jpg</t>
   </si>
   <si>
+    <t>derryrockfoto.jpg</t>
+  </si>
+  <si>
     <t>image.jpg</t>
   </si>
   <si>
     <t>1000054126.jpg</t>
   </si>
   <si>
+    <t>derryrockpubfidelity.png</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>Jajaj</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>Femminile</t>
   </si>
   <si>
@@ -145,10 +154,13 @@
     <t>Maschile</t>
   </si>
   <si>
+    <t>eee</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>eee</t>
+    <t>111</t>
   </si>
   <si>
     <t>Ajajah</t>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +586,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -589,33 +601,33 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2">
-        <v>24433</v>
+        <v>36475</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -630,33 +642,33 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2">
-        <v>34284</v>
+        <v>24433</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -671,80 +683,80 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
-        <v>32458</v>
+        <v>34284</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>38265</v>
+        <v>32458</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -753,151 +765,356 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>40122</v>
+        <v>36475</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2">
-        <v>36104</v>
+        <v>36475</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
-        <v>31449</v>
+        <v>38265</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2">
+        <v>40122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2">
+        <v>36104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2">
+        <v>31449</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>28440</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2">
+        <v>32458</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="2">
-        <v>28440</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>36475</v>
+      </c>
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
